--- a/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>TTNDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3938500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3728200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3590400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3430800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3182000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2881600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2794800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2685700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2564000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2474000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2448600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2325500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2249400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2157200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2011600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1825800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1778300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1716900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1647700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1592600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1616800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1489900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1402700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1341000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1273600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1170400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1055800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1016500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>968800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>916300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>881400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,43 +855,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>121200</v>
+      </c>
+      <c r="E12" s="3">
         <v>108600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>103500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>99100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>86400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>77200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>76200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>71000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>62300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>65500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>61300</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,8 +929,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +967,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1005,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3556900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3396400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3251600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3136900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2888100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2645600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2538400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2480200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2340100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2287500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2307000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>381600</v>
+      </c>
+      <c r="E18" s="3">
         <v>331800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>338800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>293900</v>
       </c>
       <c r="G18" s="3">
         <v>293900</v>
       </c>
       <c r="H18" s="3">
+        <v>293900</v>
+      </c>
+      <c r="I18" s="3">
         <v>236000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>256400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>205500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>223900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>186500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,78 +1112,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-25100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-19600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-18400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-11800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>524200</v>
+      </c>
+      <c r="E21" s="3">
         <v>462600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>442300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>393500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>392300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>325400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>254500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>284400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>232500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>266800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1175,87 +1215,96 @@
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3">
         <v>10300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>354500</v>
+      </c>
+      <c r="E23" s="3">
         <v>306800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>319200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>275400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>282100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>223400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>246700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>193400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>213600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>173400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>176900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E24" s="3">
         <v>21700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E26" s="3">
         <v>285100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>297800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>254800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>266100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>204400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>231900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>176900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>195500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>158600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E27" s="3">
         <v>285000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>297700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>254700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>266000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>204400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>231900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>177000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>195700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>158700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E32" s="3">
         <v>25100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>19600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>18400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>11800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E33" s="3">
         <v>285000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>297700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>254700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>266000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>204400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>231900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>177000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>195700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>158700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E35" s="3">
         <v>285000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>297700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>254700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>266000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>204400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>231900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>177000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>195700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>158700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,323 +1795,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1411800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1205600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1103900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>863100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>863500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>818100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>804700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>743800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>774600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>725200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>690400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E42" s="3">
         <v>25800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>32800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>45500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>32300</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>1000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1100</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1200</v>
       </c>
       <c r="M42" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1280400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1414000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1161000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1267000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1154400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1145100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>977300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1011300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>887500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>938300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2112900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1961100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1766700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1577700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1467400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1414700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1296400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1341400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1190300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1130900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1056300</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E45" s="3">
         <v>160900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>160600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>145000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>116400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>103400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>118800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>116900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>139800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>146300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5023900</v>
+      </c>
+      <c r="E46" s="3">
         <v>4767400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4225000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3898300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3634000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3481300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3197300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3214400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2993400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2941800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2735500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E47" s="3">
         <v>18400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>16000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>14000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>14300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>15700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>18700</v>
       </c>
       <c r="M47" s="3">
         <v>18700</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1333700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1201800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>790900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>699300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>688900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>624700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>601200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>566600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>538500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>507100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>425400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1247600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1222200</v>
       </c>
-      <c r="E49" s="3">
-        <v>1230500</v>
-      </c>
       <c r="F49" s="3">
-        <v>1172800</v>
+        <v>1202000</v>
       </c>
       <c r="G49" s="3">
-        <v>1166600</v>
+        <v>1142700</v>
       </c>
       <c r="H49" s="3">
-        <v>1150200</v>
+        <v>1135800</v>
       </c>
       <c r="I49" s="3">
-        <v>1129400</v>
+        <v>1120000</v>
       </c>
       <c r="J49" s="3">
+        <v>1099800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1117900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1074700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1060600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1050200</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E52" s="3">
         <v>86200</v>
       </c>
-      <c r="E52" s="3">
-        <v>83900</v>
-      </c>
       <c r="F52" s="3">
-        <v>85400</v>
+        <v>112400</v>
       </c>
       <c r="G52" s="3">
-        <v>92900</v>
+        <v>115600</v>
       </c>
       <c r="H52" s="3">
-        <v>154200</v>
+        <v>123800</v>
       </c>
       <c r="I52" s="3">
-        <v>178200</v>
+        <v>184400</v>
       </c>
       <c r="J52" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K52" s="3">
         <v>163800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>178500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>124500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7698100</v>
+      </c>
+      <c r="E54" s="3">
         <v>7296000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6348900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5873600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5598500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5424400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5120400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5078500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4802700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4652700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4351400</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2359,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1177500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1036100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1127000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>991700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>863600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>829400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>765600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>797600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>673200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>706300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>696500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>796300</v>
+      </c>
+      <c r="E58" s="3">
         <v>818400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>255500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>204100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>263200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>452300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>408500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>569500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>594300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>660800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>556900</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1244000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1290500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1233500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1070500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1018600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>905400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>895700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>868900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>801900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>725100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>693800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3217700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3145000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2616000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2266200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2145400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2187200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2069700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2236000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2069500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2092200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1947200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>929100</v>
+      </c>
+      <c r="E61" s="3">
         <v>830000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>540900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>560600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>573400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>551900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>501200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>495800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>467100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>407600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>333400</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>156900</v>
+      </c>
+      <c r="E62" s="3">
         <v>140500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>134600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>140000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>138900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>153500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>150500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>114100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>110600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>103600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4303400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4115100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3291100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2966400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2857300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2891900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2720900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2845400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2646700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2603300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2384200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2933700</v>
+      </c>
+      <c r="E72" s="3">
         <v>2702600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2570200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2392400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2241100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2042300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1912500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1735600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1610100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1451100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1336100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3394600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3180900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3057800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2907200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2741200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2532600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2399500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2233100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2156000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2049400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1967200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E81" s="3">
         <v>285000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>297700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>254700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>266000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>204400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>231900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>177000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>195700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>158700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,28 +3232,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E83" s="3">
         <v>155800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>123100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>118100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>110200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>102000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>10</v>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>796000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-71700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>602000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>191600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>493700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>104600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>458300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>125300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>275900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>59300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,28 +3514,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-203600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-253000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-173700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-85400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-131800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-71800</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
@@ -3329,8 +3550,11 @@
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-262800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-305700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-284100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-139600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-212500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-134100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-158800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-127600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-146000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-174900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-123100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,29 +3682,30 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-117600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-89600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-93800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-65500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-70800</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3718,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-322700</v>
+      </c>
+      <c r="E100" s="3">
         <v>485400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-62300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-43600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-246100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>29100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-222200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-20700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-59800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>152700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-217300</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-14800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>12500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>13200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-18000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>206300</v>
+      </c>
+      <c r="E102" s="3">
         <v>101700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>240800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>47600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>59200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>40600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>TTNDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4205700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3938500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3728200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3590400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3430800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3182000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2881600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2794800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2685700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2564000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2474000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2608600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2448600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2325500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2249400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2157200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2011600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1825800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1778300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1716900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1647700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1592600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1616800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1597100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1489900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1402700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1341000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1273600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1170400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1055800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1016500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>968800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>916300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>881400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,46 +869,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E12" s="3">
         <v>121200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>108600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>103500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>99100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>86400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>77200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>76200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>71000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>62300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>65500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>61300</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,31 +949,34 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -970,8 +990,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3823300</v>
+      </c>
+      <c r="E17" s="3">
         <v>3556900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3396400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3251600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3136900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2888100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2645600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2538400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2480200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2340100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2287500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2307000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>382400</v>
+      </c>
+      <c r="E18" s="3">
         <v>381600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>331800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>338800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>293900</v>
       </c>
       <c r="H18" s="3">
         <v>293900</v>
       </c>
       <c r="I18" s="3">
+        <v>293900</v>
+      </c>
+      <c r="J18" s="3">
         <v>236000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>256400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>205500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>223900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>186500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,84 +1146,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-25100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-19600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-18400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>528300</v>
+      </c>
+      <c r="E21" s="3">
         <v>524200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>462600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>442300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>393500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>392300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>325400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>254500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>284400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>232500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>266800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1218,55 +1258,61 @@
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3">
         <v>10300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>356200</v>
+      </c>
+      <c r="E23" s="3">
         <v>354500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>306800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>319200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>275400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>282100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>223400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>246700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>193400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>213600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>173400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>176900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1274,37 +1320,40 @@
         <v>24600</v>
       </c>
       <c r="E24" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F24" s="3">
         <v>21700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>331600</v>
+      </c>
+      <c r="E26" s="3">
         <v>329900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>285100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>297800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>254800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>266100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>204400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>231900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>176900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>195500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>158600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>331600</v>
+      </c>
+      <c r="E27" s="3">
         <v>329900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>285000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>297700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>254700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>266000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>204400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>231900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>177000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>195700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>158700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E32" s="3">
         <v>27100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>25100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>19600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>18400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>331600</v>
+      </c>
+      <c r="E33" s="3">
         <v>329900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>285000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>297700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>254700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>266000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>204400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>231900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>177000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>195700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>158700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>331600</v>
+      </c>
+      <c r="E35" s="3">
         <v>329900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>285000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>297700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>254700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>266000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>204400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>231900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>177000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>195700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>158700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,350 +1882,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1714900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1411800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1205600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1103900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>863100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>863500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>818100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>804700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>743800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>774600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>725200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>690400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E42" s="3">
         <v>24600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>32800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>45500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>32300</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1100</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1200</v>
       </c>
       <c r="N42" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1656400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1280400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1414000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1161000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1267000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1154400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1145100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>977300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1011300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>887500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>938300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2326800</v>
+      </c>
+      <c r="E44" s="3">
         <v>2112900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1961100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1766700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1577700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1467400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1414700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1296400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1341400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1190300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1130900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1056300</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E45" s="3">
         <v>194100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>160900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>160600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>145000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>116400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>103400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>118800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>116900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>139800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>146300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5926900</v>
+      </c>
+      <c r="E46" s="3">
         <v>5023900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4767400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4225000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3898300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3634000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3481300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3197300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3214400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2993400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2941800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2735500</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E47" s="3">
         <v>18000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>16000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>14000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17600</v>
-      </c>
-      <c r="M47" s="3">
-        <v>18700</v>
       </c>
       <c r="N47" s="3">
         <v>18700</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1404900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1333700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1201800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>790900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>699300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>688900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>624700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>601200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>566600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>538500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>507100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>425400</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1268500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1247600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1222200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1202000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1142700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1135800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1120000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1099800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1117900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1074700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1060600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1050200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E52" s="3">
         <v>74900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>86200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>112400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>115600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>123800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>184400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>207800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>163800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>178500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>124500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8695500</v>
+      </c>
+      <c r="E54" s="3">
         <v>7698100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7296000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6348900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5873600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5598500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5424400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5120400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5078500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4802700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4652700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4351400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1473600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1177500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1036100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1127000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>991700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>863600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>829400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>765600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>797600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>673200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>706300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>696500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1067800</v>
+      </c>
+      <c r="E58" s="3">
         <v>796300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>818400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>255500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>204100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>263200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>452300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>408500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>569500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>594300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>660800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>556900</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1265400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1244000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1290500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1233500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1070500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1018600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>905400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>895700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>868900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>801900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>725100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>693800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3806900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3217700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3145000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2616000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2266200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2145400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2187200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2069700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2236000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2069500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2092200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1947200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1141000</v>
+      </c>
+      <c r="E61" s="3">
         <v>929100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>830000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>540900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>560600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>573400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>551900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>501200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>495800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>467100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>407600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>333400</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E62" s="3">
         <v>156900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>140500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>134600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>140000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>138900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>153500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>150500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>114100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>110600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>103600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5108100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4303400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4115100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3291100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2966400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2857300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2891900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2720900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2845400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2646700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2603300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2384200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3128700</v>
+      </c>
+      <c r="E72" s="3">
         <v>2933700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2702600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2570200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2392400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2241100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2042300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1912500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1735600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1610100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1451100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1336100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3587400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3394600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3180900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3057800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2907200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2741200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2532600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2399500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2233100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2156000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2049400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1967200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>331600</v>
+      </c>
+      <c r="E81" s="3">
         <v>329900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>285000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>297700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>254700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>266000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>204400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>231900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>177000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>195700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>158700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,31 +3431,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>172100</v>
+      </c>
+      <c r="E83" s="3">
         <v>169700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>155800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>123100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>118100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>110200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>102000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>213800</v>
+      </c>
+      <c r="E89" s="3">
         <v>796000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-71700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>602000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>191600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>493700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>104600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>458300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>125300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>275900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>59300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,31 +3735,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-117300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-203600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-253000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-173700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-85400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-131800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-71800</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -3553,8 +3774,11 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-262800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-305700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-284100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-139600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-212500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-134100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-158800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-127600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-146000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-174900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-123100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,32 +3916,33 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-136700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-106000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-117600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-89600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-93800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-65500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-70800</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3955,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>273300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-322700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>485400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-62300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-43600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-246100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>29100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-222200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-59800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>152700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-217300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-14800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>12500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>13200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-18000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>303100</v>
+      </c>
+      <c r="E102" s="3">
         <v>206300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>101700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>240800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>47600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>59200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>40600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>TTNDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5606200</v>
+      </c>
+      <c r="E8" s="3">
         <v>4205700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3938500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3728200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3590400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3430800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3182000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2881600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2794800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2685700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2564000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2474000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3450200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2608600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2448600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2325500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2249400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2157200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2011600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1825800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1778300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1716900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1647700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1592600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1616800</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2156000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1597100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1489900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1402700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1341000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1273600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1170400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1055800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1016500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>968800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>916300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>881400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,49 +883,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>195700</v>
+      </c>
+      <c r="E12" s="3">
         <v>120900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>121200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>108600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>103500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>99100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>86400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>77200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>76200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>71000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>62300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>65500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>61300</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,8 +969,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -978,8 +998,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -993,8 +1013,11 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5083600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3823300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3556900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3396400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3251600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3136900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2888100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2645600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2538400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2480200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2340100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2287500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2307000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>522600</v>
+      </c>
+      <c r="E18" s="3">
         <v>382400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>381600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>331800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>338800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>293900</v>
       </c>
       <c r="I18" s="3">
         <v>293900</v>
       </c>
       <c r="J18" s="3">
+        <v>293900</v>
+      </c>
+      <c r="K18" s="3">
         <v>236000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>256400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>205500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>223900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>186500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,90 +1180,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-26200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-27100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-25100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-18400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>737100</v>
+      </c>
+      <c r="E21" s="3">
         <v>528300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>524200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>462600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>442300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>393500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>392300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>325400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>254500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>284400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>232500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>266800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1261,99 +1301,108 @@
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3">
         <v>10300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>505000</v>
+      </c>
+      <c r="E23" s="3">
         <v>356200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>354500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>306800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>319200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>275400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>282100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>223400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>246700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>193400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>213600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>173400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>176900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24600</v>
+        <v>35700</v>
       </c>
       <c r="E24" s="3">
         <v>24600</v>
       </c>
       <c r="F24" s="3">
+        <v>24600</v>
+      </c>
+      <c r="G24" s="3">
         <v>21700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>469400</v>
+      </c>
+      <c r="E26" s="3">
         <v>331600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>329900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>285100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>297800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>254800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>266100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>204400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>231900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>176900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>195500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>158600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>469200</v>
+      </c>
+      <c r="E27" s="3">
         <v>331600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>329900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>285000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>297700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>254700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>266000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>204400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>231900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>177000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>195700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>158700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E32" s="3">
         <v>26200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>27100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>25100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>18400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>469200</v>
+      </c>
+      <c r="E33" s="3">
         <v>331600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>329900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>285000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>297700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>254700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>266000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>204400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>231900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>177000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>195700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>158700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>469200</v>
+      </c>
+      <c r="E35" s="3">
         <v>331600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>329900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>285000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>297700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>254700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>266000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>204400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>231900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>177000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>195700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>158700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,377 +1969,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1533900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1714900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1411800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1205600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1103900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>863100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>863500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>818100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>804700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>743800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>774600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>725200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>690400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E42" s="3">
         <v>16400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>24600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>25800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>32800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>45500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>32300</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1100</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1200</v>
       </c>
       <c r="O42" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1415600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1656400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1280400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1414000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1161000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1267000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1154400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1145100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>977300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1011300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>887500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>938300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3223700</v>
+      </c>
+      <c r="E44" s="3">
         <v>2326800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2112900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1961100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1766700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1577700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1467400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1414700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1296400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1341400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1190300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1130900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1056300</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E45" s="3">
         <v>212500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>194100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>160900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>160600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>145000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>116400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>103400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>116900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>139800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>146300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6340000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5926900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5023900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4767400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4225000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3898300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3634000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3481300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3197300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3214400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2993400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2941800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2735500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E47" s="3">
         <v>18400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>16000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>15700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17600</v>
-      </c>
-      <c r="N47" s="3">
-        <v>18700</v>
       </c>
       <c r="O47" s="3">
         <v>18700</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1716700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1404900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1333700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1201800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>790900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>699300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>688900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>624700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>601200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>566600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>538500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>507100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>425400</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1242100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1268500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1247600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1222200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1202000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1142700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1135800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1120000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1099800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1117900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1074700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1060600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1050200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E52" s="3">
         <v>76800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>74900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>86200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>112400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>115600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>123800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>184400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>207800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>163800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>178500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>124500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9390400</v>
+      </c>
+      <c r="E54" s="3">
         <v>8695500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7698100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7296000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6348900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5873600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5598500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5424400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5120400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5078500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4802700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4652700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4351400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1784900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1473600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1177500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1036100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1127000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>991700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>863600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>829400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>765600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>797600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>673200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>706300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>696500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>458500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1067800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>796300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>818400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>255500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>204100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>263200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>452300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>408500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>569500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>594300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>660800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>556900</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1838000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1265400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1244000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1290500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1233500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1070500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1018600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>905400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>895700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>868900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>801900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>725100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>693800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4081400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3806900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3217700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3145000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2616000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2266200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2145400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2187200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2069700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2236000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2069500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2092200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1947200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1241300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1141000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>929100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>830000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>540900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>560600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>573400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>551900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>501200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>495800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>467100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>407600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>333400</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E62" s="3">
         <v>160600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>156900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>140500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>134600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>140000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>138900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>153500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>150500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>114100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>110600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>103600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5487400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5108100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4303400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4115100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3291100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2966400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2857300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2891900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2720900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2845400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2646700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2603300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2384200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3459600</v>
+      </c>
+      <c r="E72" s="3">
         <v>3128700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2933700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2702600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2570200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2392400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2241100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2042300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1912500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1735600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1610100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1451100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1336100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3903000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3587400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3394600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3180900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3057800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2907200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2741200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2532600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2399500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2233100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2156000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2049400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1967200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>469200</v>
+      </c>
+      <c r="E81" s="3">
         <v>331600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>329900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>285000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>297700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>254700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>266000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>204400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>231900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>177000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>195700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>158700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,34 +3630,35 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E83" s="3">
         <v>172100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>169700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>155800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>123100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>118100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>110200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>102000</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>10</v>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>945300</v>
+      </c>
+      <c r="E89" s="3">
         <v>213800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>796000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-71700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>602000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>191600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>493700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>104600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>458300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>125300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>275900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>59300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,34 +3956,35 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-341700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-117300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-203600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-253000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-173700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-85400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-131800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-71800</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
@@ -3777,8 +3998,11 @@
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-404300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-176000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-262800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-305700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-284100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-139600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-212500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-134100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-158800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-127600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-146000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-174900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-123100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,35 +4150,36 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-136700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-106000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-117600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-89600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-93800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-65500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-70800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -3958,8 +4192,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-771400</v>
+      </c>
+      <c r="E100" s="3">
         <v>273300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-322700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>485400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-62300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-43600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-246100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>29100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-222200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-20700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-59800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>152700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-217300</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-14800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>12500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>13200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-18800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="E102" s="3">
         <v>303100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>206300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>101700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>240800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>47600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>59200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>51300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>40600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>TTNDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6393700</v>
+      </c>
+      <c r="E8" s="3">
         <v>5606200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4205700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3938500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3728200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3590400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3430800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3182000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2881600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2794800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2685700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2564000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2474000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3928700</v>
+      </c>
+      <c r="E9" s="3">
         <v>3450200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2608600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2448600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2325500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2249400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2157200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2011600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1825800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1778300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1716900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1647700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1592600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1616800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2465000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2156000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1597100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1489900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1402700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1341000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1273600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1170400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1055800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1016500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>968800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>916300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>881400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,52 +897,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E12" s="3">
         <v>195700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>120900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>121200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>108600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>103500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>99100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>86400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>77200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>76200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>71000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>62300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>65500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>61300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,8 +989,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1001,8 +1021,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1016,8 +1036,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5806000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5083600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3823300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3556900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3396400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3251600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3136900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2888100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2645600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2538400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2480200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2340100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2287500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2307000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>587700</v>
+      </c>
+      <c r="E18" s="3">
         <v>522600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>382400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>381600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>331800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>338800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>293900</v>
       </c>
       <c r="J18" s="3">
         <v>293900</v>
       </c>
       <c r="K18" s="3">
+        <v>293900</v>
+      </c>
+      <c r="L18" s="3">
         <v>236000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>256400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>205500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>223900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>186500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,96 +1214,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-17600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-26200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-25100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-19600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-18400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>768100</v>
+      </c>
+      <c r="E21" s="3">
         <v>737100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>528300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>524200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>462600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>442300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>393500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>392300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>325400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>254500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>284400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>232500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>266800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1304,105 +1344,114 @@
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="3">
         <v>10300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>563100</v>
+      </c>
+      <c r="E23" s="3">
         <v>505000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>356200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>354500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>306800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>319200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>275400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>282100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>223400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>246700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>193400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>213600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>173400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>176900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E24" s="3">
         <v>35700</v>
-      </c>
-      <c r="E24" s="3">
-        <v>24600</v>
       </c>
       <c r="F24" s="3">
         <v>24600</v>
       </c>
       <c r="G24" s="3">
+        <v>24600</v>
+      </c>
+      <c r="H24" s="3">
         <v>21700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>523700</v>
+      </c>
+      <c r="E26" s="3">
         <v>469400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>331600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>329900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>285100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>297800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>254800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>266100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>204400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>231900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>176900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>195500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>158600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>523600</v>
+      </c>
+      <c r="E27" s="3">
         <v>469200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>331600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>329900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>285000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>297700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>254700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>266000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>204400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>231900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>177000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>195700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>158700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E32" s="3">
         <v>17600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>26200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>25100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>19600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>18400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>523600</v>
+      </c>
+      <c r="E33" s="3">
         <v>469200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>331600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>329900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>285000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>297700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>254700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>266000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>204400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>231900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>177000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>195700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>158700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>523600</v>
+      </c>
+      <c r="E35" s="3">
         <v>469200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>331600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>329900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>285000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>297700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>254700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>266000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>204400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>231900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>177000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>195700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>158700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,404 +2056,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2270300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1533900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1714900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1411800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1205600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1103900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>863100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>863500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>818100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>804700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>743800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>774600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>725200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>690400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E42" s="3">
         <v>17800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>24600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>32800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>45500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>32300</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>1000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1100</v>
-      </c>
-      <c r="O42" s="3">
-        <v>1200</v>
       </c>
       <c r="P42" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2005200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1415600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1656400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1280400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1414000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1161000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1267000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1154400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1145100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>977300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1011300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>887500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>938300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4471300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3223700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2326800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2112900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1961100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1766700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1577700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1467400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1414700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1296400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1341400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1190300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1130900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1056300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E45" s="3">
         <v>149000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>212500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>194100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>160900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>160600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>145000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>116400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>103400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>118800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>116900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>139800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>146300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8974600</v>
+      </c>
+      <c r="E46" s="3">
         <v>6340000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5926900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5023900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4767400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4225000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3898300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3634000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3481300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3197300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3214400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2993400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2941800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2735500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E47" s="3">
         <v>17100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>16000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>15700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>17600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>18700</v>
       </c>
       <c r="P47" s="3">
         <v>18700</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1899100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1716700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1404900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1333700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1201800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>790900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>699300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>688900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>624700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>601200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>566600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>538500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>507100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>425400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1304600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1242100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1268500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1247600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1222200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1202000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1142700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1135800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1120000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1099800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1117900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1074700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1060600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1050200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E52" s="3">
         <v>74500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>76800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>74900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>86200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>112400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>115600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>123800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>184400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>207800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>163800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>178500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>124500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12267100</v>
+      </c>
+      <c r="E54" s="3">
         <v>9390400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8695500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7698100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7296000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6348900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5873600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5598500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5424400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5120400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5078500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4802700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4652700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4351400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2391600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1784900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1473600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1177500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1036100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1127000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>991700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>863600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>829400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>765600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>797600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>673200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>706300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>696500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2146000</v>
+      </c>
+      <c r="E58" s="3">
         <v>458500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1067800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>796300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>818400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>255500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>204100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>263200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>452300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>408500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>569500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>594300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>660800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>556900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2083400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1838000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1265400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1244000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1290500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1233500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1070500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1018600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>905400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>895700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>868900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>801900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>725100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>693800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6620900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4081400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3806900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3217700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3145000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2616000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2266200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2145400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2187200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2069700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2236000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2069500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2092200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1947200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1249200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1241300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1141000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>929100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>830000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>540900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>560600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>573400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>551900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>501200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>495800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>467100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>407600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>333400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E62" s="3">
         <v>164800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>160600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>156900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>140500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>134600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>140000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>138900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>153500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>150500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>114100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>110600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>103600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8001500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5487400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5108100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4303400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4115100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3291100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2966400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2857300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2891900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2720900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2845400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2646700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2603300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2384200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3797700</v>
+      </c>
+      <c r="E72" s="3">
         <v>3459600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3128700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2933700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2702600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2570200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2392400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2241100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2042300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1912500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1735600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1610100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1451100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1336100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4265600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3903000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3587400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3394600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3180900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3057800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2907200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2741200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2532600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2399500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2233100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2156000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2049400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1967200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>523600</v>
+      </c>
+      <c r="E81" s="3">
         <v>469200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>331600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>329900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>285000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>297700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>254700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>266000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>204400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>231900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>177000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>195700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>158700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,37 +3829,38 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E83" s="3">
         <v>232000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>172100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>169700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>155800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>123100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>118100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>110200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>102000</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>10</v>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-321400</v>
+      </c>
+      <c r="E89" s="3">
         <v>945300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>213800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>796000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-71700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>602000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>191600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>493700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>104600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>458300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>125300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>275900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>59300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,37 +4177,38 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-245100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-341700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-117300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-203600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-253000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-173700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-85400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-131800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-71800</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
@@ -4001,8 +4222,11 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-360000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-404300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-176000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-262800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-305700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-284100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-139600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-212500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-134100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-158800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-127600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-146000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-174900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-123100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,38 +4384,39 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-193500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-124900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-136700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-106000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-117600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-89600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-93800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-65500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-70800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4195,8 +4429,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1417000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-771400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>273300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-322700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>485400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-62300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-43600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-246100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>29100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-222200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-59800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>152700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-217300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>49400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>12500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-18800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>736500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-181000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>303100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>206300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>101700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>240800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>47600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>59200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-26900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>51300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>40600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2391600</v>
+        <v>2313700</v>
       </c>
       <c r="E57" s="3">
-        <v>1784900</v>
+        <v>1723100</v>
       </c>
       <c r="F57" s="3">
-        <v>1473600</v>
+        <v>1441700</v>
       </c>
       <c r="G57" s="3">
-        <v>1177500</v>
+        <v>1131300</v>
       </c>
       <c r="H57" s="3">
-        <v>1036100</v>
+        <v>1009700</v>
       </c>
       <c r="I57" s="3">
-        <v>1127000</v>
+        <v>1085800</v>
       </c>
       <c r="J57" s="3">
-        <v>991700</v>
+        <v>946600</v>
       </c>
       <c r="K57" s="3">
         <v>863600</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2083400</v>
+        <v>2161300</v>
       </c>
       <c r="E59" s="3">
-        <v>1838000</v>
+        <v>1899700</v>
       </c>
       <c r="F59" s="3">
-        <v>1265400</v>
+        <v>1297400</v>
       </c>
       <c r="G59" s="3">
-        <v>1244000</v>
+        <v>1290200</v>
       </c>
       <c r="H59" s="3">
-        <v>1290500</v>
+        <v>1316900</v>
       </c>
       <c r="I59" s="3">
-        <v>1233500</v>
+        <v>1274600</v>
       </c>
       <c r="J59" s="3">
-        <v>1070500</v>
+        <v>1115500</v>
       </c>
       <c r="K59" s="3">
         <v>1018600</v>

--- a/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TTNDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20012600</v>
+      </c>
+      <c r="E8" s="3">
         <v>6393700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5606200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4205700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3938500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3728200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3590400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3430800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3182000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2881600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2794800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2685700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2564000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2474000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-3928700</v>
+      </c>
+      <c r="E9" s="3">
         <v>3928700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3450200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2608600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2448600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2325500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2249400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2157200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2011600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1825800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1778300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1716900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1647700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1592600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1616800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23941300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2465000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2156000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1597100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1489900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1402700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1341000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1273600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1170400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1055800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1016500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>968800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>916300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>881400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,55 +911,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>-196100</v>
+      </c>
+      <c r="E12" s="3">
         <v>196100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>195700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>120900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>121200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>108600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>103500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>99100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>86400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>77200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>76200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>71000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>62300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>65500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>61300</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1009,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,8 +1044,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1039,8 +1059,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6173400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5806000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5083600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3823300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3556900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3396400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3251600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3136900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2888100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2645600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2538400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2480200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2340100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2287500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2307000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13839200</v>
+      </c>
+      <c r="E18" s="3">
         <v>587700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>522600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>382400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>381600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>331800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>338800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>293900</v>
       </c>
       <c r="K18" s="3">
         <v>293900</v>
       </c>
       <c r="L18" s="3">
+        <v>293900</v>
+      </c>
+      <c r="M18" s="3">
         <v>236000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>256400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>205500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>223900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>186500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,102 +1248,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13220500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-24600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-26200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-27100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-25100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-19600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-18400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>840800</v>
+      </c>
+      <c r="E21" s="3">
         <v>768100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>737100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>528300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>524200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>462600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>442300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>393500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>392300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>325400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>254500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>284400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>232500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>266800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1347,111 +1387,120 @@
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="3">
         <v>10300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>618700</v>
+      </c>
+      <c r="E23" s="3">
         <v>563100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>505000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>356200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>354500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>306800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>319200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>275400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>282100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>223400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>246700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>193400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>213600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>173400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>176900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1225100</v>
+      </c>
+      <c r="E24" s="3">
         <v>39400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>35700</v>
-      </c>
-      <c r="F24" s="3">
-        <v>24600</v>
       </c>
       <c r="G24" s="3">
         <v>24600</v>
       </c>
       <c r="H24" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I24" s="3">
         <v>21700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>575400</v>
+      </c>
+      <c r="E26" s="3">
         <v>523700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>469400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>331600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>329900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>285100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>297800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>254800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>266100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>204400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>231900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>176900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>195500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>158600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>575400</v>
+      </c>
+      <c r="E27" s="3">
         <v>523600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>469200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>331600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>329900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>285000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>297700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>254700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>266000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>204400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>231900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>177000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>195700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>158700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13220500</v>
+      </c>
+      <c r="E32" s="3">
         <v>24600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>26200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>27100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>25100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>19600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>18400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>575400</v>
+      </c>
+      <c r="E33" s="3">
         <v>523600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>469200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>331600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>329900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>285000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>297700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>254700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>266000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>204400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>231900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>177000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>195700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>158700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>575400</v>
+      </c>
+      <c r="E35" s="3">
         <v>523600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>469200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>331600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>329900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>285000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>297700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>254700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>266000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>204400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>231900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>177000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>195700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>158700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,431 +2143,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1874400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2270300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1533900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1714900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1411800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1205600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1103900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>863100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>863500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>818100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>804700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>743800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>774600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>725200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>690400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E42" s="3">
         <v>25800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>17800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>24600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>25800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>32800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>45500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32300</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>1000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1100</v>
-      </c>
-      <c r="P42" s="3">
-        <v>1200</v>
       </c>
       <c r="Q42" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4098400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2005200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1415600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1656400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1280400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1414000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1161000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1267000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1154400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1145100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>977300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1011300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>887500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>938300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4849800</v>
+      </c>
+      <c r="E44" s="3">
         <v>4471300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3223700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2326800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2112900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1961100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1766700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1577700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1467400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1414700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1296400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1341400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1190300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1130900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1056300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E45" s="3">
         <v>202000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>149000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>212500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>194100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>160900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>160600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>145000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>116400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>118800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>116900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>139800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>146300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9061500</v>
+      </c>
+      <c r="E46" s="3">
         <v>8974600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6340000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5926900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5023900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4767400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4225000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3898300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3634000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3481300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3197300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3214400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2993400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2941800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2735500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E47" s="3">
         <v>15800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>17700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>17600</v>
-      </c>
-      <c r="P47" s="3">
-        <v>18700</v>
       </c>
       <c r="Q47" s="3">
         <v>18700</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2406300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1899100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1716700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1404900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1333700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1201800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>790900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>699300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>688900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>624700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>601200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>566600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>538500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>507100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>425400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1427000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1304600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1242100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1268500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1247600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1222200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1202000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1142700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1135800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1120000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1099800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1117900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1074700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1060600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1050200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E52" s="3">
         <v>72900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>74500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>76800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>74900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>86200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>112400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>115600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>123800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>184400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>207800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>163800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>178500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>124500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13007500</v>
+      </c>
+      <c r="E54" s="3">
         <v>12267100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9390400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8695500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7698100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7296000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6348900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5873600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5598500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5424400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5120400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5078500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4802700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4652700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4351400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6024300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2313700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1723100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1441700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1131300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1009700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1085800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>946600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>863600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>829400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>765600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>797600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>673200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>706300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>696500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2367800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2146000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>458500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1067800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>796300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>818400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>255500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>204100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>263200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>452300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>408500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>569500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>594300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>660800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>556900</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2327200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2161300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1899700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1297400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1290200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1316900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1274600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1115500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1018600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>905400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>895700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>868900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>801900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>725100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>693800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6679000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6620900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4081400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3806900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3217700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3145000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2616000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2266200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2145400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2187200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2069700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2236000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2069500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2092200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1947200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1467400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1249200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1241300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1141000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>929100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>830000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>540900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>560600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>573400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>551900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>501200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>495800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>467100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>407600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>333400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>138700</v>
+      </c>
+      <c r="E62" s="3">
         <v>131400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>164800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>160600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>156900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>140500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>134600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>140000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>138900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>153500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>150500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>114100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>110600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>103600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8285000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8001500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5487400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5108100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4303400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4115100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3291100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2966400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2857300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2891900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2720900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2845400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2646700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2603300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2384200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8217600</v>
+      </c>
+      <c r="E72" s="3">
         <v>3797700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3459600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3128700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2933700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2702600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2570200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2392400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2241100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2042300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1912500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1735600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1610100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1451100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1336100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4722500</v>
+      </c>
+      <c r="E76" s="3">
         <v>4265600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3903000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3587400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3394600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3180900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3057800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2907200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2741200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2532600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2399500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2233100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2156000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2049400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1967200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>575400</v>
+      </c>
+      <c r="E81" s="3">
         <v>523600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>469200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>331600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>329900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>285000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>297700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>254700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>266000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>204400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>231900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>177000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>195700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>158700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,40 +4028,41 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>222100</v>
+      </c>
+      <c r="E83" s="3">
         <v>205000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>232000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>172100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>169700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>155800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>123100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>118100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>110200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>102000</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>10</v>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>220400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-321400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>945300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>213800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>796000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-71700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>602000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>191600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>493700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>104600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>458300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>125300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>275900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>59300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,40 +4398,41 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-501500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-245100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-341700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-117300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-203600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-253000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-173700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-85400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-131800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-71800</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
@@ -4225,8 +4446,11 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-664900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-360000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-404300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-176000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-262800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-305700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-284100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-139600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-212500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-134100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-158800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-127600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-146000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-174900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-123100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,41 +4618,42 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-200600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-193500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-124900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-136700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-106000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-117600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-89600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-93800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-65500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-70800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4432,8 +4666,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1417000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-771400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>273300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-322700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>485400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-62300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-43600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-246100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>29100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-222200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-20700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-59800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>152700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-217300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>49400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-18000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-18800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-395900</v>
+      </c>
+      <c r="E102" s="3">
         <v>736500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-181000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>303100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>206300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>101700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>240800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>47600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>59200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>51300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>40600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TTNDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7033600</v>
+      </c>
+      <c r="E8" s="3">
         <v>20012600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6393700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5606200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4205700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3938500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3728200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3590400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3430800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3182000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2881600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2794800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2685700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2564000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2474000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4286900</v>
+      </c>
+      <c r="E9" s="3">
         <v>-3928700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3928700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3450200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2608600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2448600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2325500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2249400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2157200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2011600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1825800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1778300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1716900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1647700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1592600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1616800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2746700</v>
+      </c>
+      <c r="E10" s="3">
         <v>23941300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2465000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2156000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1597100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1489900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1402700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1341000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1273600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1170400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1055800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1016500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>968800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>916300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>881400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,58 +925,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>231800</v>
+      </c>
+      <c r="E12" s="3">
         <v>-196100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>196100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>195700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>120900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>121200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>108600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>103500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>99100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>86400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>77200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>76200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>71000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>62300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>65500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>61300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1029,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1067,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1062,8 +1082,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6388900</v>
+      </c>
+      <c r="E17" s="3">
         <v>6173400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5806000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5083600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3823300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3556900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3396400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3251600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3136900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2888100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2645600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2538400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2480200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2340100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2287500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2307000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>644700</v>
+      </c>
+      <c r="E18" s="3">
         <v>13839200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>587700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>522600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>382400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>381600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>331800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>338800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>293900</v>
       </c>
       <c r="L18" s="3">
         <v>293900</v>
       </c>
       <c r="M18" s="3">
+        <v>293900</v>
+      </c>
+      <c r="N18" s="3">
         <v>236000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>256400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>205500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>223900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>186500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,131 +1282,138 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13220500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-24600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-26200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-25100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>863700</v>
+      </c>
+      <c r="E21" s="3">
         <v>840800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>768100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>737100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>528300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>524200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>462600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>442300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>393500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>392300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>325400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>254500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>284400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>232500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>266800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1390,117 +1430,126 @@
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3">
         <v>10300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>621500</v>
+      </c>
+      <c r="E23" s="3">
         <v>618700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>563100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>505000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>356200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>354500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>306800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>319200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>275400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>282100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>223400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>246700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>193400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>213600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>173400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>176900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1225100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>39400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>35700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>24600</v>
       </c>
       <c r="H24" s="3">
         <v>24600</v>
       </c>
       <c r="I24" s="3">
+        <v>24600</v>
+      </c>
+      <c r="J24" s="3">
         <v>21700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E26" s="3">
         <v>575400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>523700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>469400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>331600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>329900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>285100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>297800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>254800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>266100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>204400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>231900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>176900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>195500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>158600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E27" s="3">
         <v>575400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>523600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>469200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>331600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>329900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>285000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>297700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>254700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>266000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>204400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>231900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>177000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>195700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>158700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1749,8 +1810,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E32" s="3">
         <v>13220500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>24600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>26200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>25100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E33" s="3">
         <v>575400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>523600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>469200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>331600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>329900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>285000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>297700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>254700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>266000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>204400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>231900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>177000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>195700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>158700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E35" s="3">
         <v>575400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>523600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>469200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>331600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>329900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>285000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>297700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>254700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>266000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>204400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>231900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>177000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>195700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>158700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,458 +2230,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1274200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1874400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2270300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1533900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1714900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1411800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1205600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1103900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>863100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>863500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>818100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>804700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>743800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>774600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>725200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>690400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E42" s="3">
         <v>16300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>17800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>24600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>32800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>32300</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>1000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>1200</v>
       </c>
       <c r="R42" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2250200</v>
+      </c>
+      <c r="E43" s="3">
         <v>4098400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2005200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1415600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1656400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1280400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1414000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1161000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1267000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1154400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1145100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>977300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1011300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>887500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>938300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5231700</v>
+      </c>
+      <c r="E44" s="3">
         <v>4849800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4471300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3223700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2326800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2112900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1961100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1766700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1577700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1467400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1414700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1296400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1341400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1190300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1130900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1056300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>553400</v>
+      </c>
+      <c r="E45" s="3">
         <v>245000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>202000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>149000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>212500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>194100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>160900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>160600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>145000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>116400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>103400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>118800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>116900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>139800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>146300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9321600</v>
+      </c>
+      <c r="E46" s="3">
         <v>9061500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8974600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6340000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5926900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5023900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4767400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4225000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3898300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3634000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3481300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3197300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3214400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2993400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2941800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2735500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E47" s="3">
         <v>15300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>15800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>15700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17600</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>18700</v>
       </c>
       <c r="R47" s="3">
         <v>18700</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2511600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2406300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1899100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1716700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1404900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1333700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1201800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>790900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>699300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>688900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>624700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>601200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>566600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>538500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>507100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>425400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1572300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1427000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1304600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1242100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1268500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1247600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1222200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1202000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1142700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1135800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1120000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1099800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1117900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1074700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1060600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1050200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E52" s="3">
         <v>97400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>72900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>74500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>76800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>74900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>86200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>112400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>115600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>123800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>184400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>207800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>163800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>178500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>124500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13518100</v>
+      </c>
+      <c r="E54" s="3">
         <v>13007500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12267100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9390400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8695500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7698100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7296000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6348900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5873600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5598500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5424400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5120400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5078500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4802700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4652700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4351400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6024300</v>
+        <v>2387300</v>
       </c>
       <c r="E57" s="3">
+        <v>6072800</v>
+      </c>
+      <c r="F57" s="3">
         <v>2313700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1723100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1441700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1131300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1009700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1085800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>946600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>863600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>829400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>765600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>797600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>673200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>706300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>696500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2367800</v>
+        <v>2199300</v>
       </c>
       <c r="E58" s="3">
+        <v>4735700</v>
+      </c>
+      <c r="F58" s="3">
         <v>2146000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>458500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1067800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>796300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>818400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>255500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>204100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>263200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>452300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>408500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>569500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>594300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>660800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>556900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2327200</v>
+        <v>2021500</v>
       </c>
       <c r="E59" s="3">
+        <v>2575200</v>
+      </c>
+      <c r="F59" s="3">
         <v>2161300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1899700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1297400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1290200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1316900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1274600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1115500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1018600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>905400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>895700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>868900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>801900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>725100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>693800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6679000</v>
+        <v>6608000</v>
       </c>
       <c r="E60" s="3">
+        <v>6701700</v>
+      </c>
+      <c r="F60" s="3">
         <v>6620900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4081400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3806900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3217700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3145000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2616000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2266200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2145400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2187200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2069700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2236000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2069500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2092200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1947200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1758900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1467400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1249200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1241300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1141000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>929100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>830000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>540900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>560600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>573400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>551900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>501200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>495800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>467100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>407600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>333400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>138700</v>
+        <v>102100</v>
       </c>
       <c r="E62" s="3">
+        <v>214800</v>
+      </c>
+      <c r="F62" s="3">
         <v>131400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>164800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>160600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>156900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>140500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>134600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>140000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>138900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>153500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>150500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>114100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>110600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>103600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8469000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8285000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8001500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5487400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5108100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4303400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4115100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3291100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2966400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2857300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2891900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2720900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2845400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2646700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2603300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2384200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8217600</v>
+        <v>4538500</v>
       </c>
       <c r="E72" s="3">
+        <v>8901000</v>
+      </c>
+      <c r="F72" s="3">
         <v>3797700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3459600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3128700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2933700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2702600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2570200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2392400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2241100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2042300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1912500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1735600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1610100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1451100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1336100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5049100</v>
+      </c>
+      <c r="E76" s="3">
         <v>4722500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4265600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3903000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3587400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3394600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3180900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3057800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2907200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2741200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2532600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2399500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2233100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2156000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2049400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1967200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E81" s="3">
         <v>575400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>523600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>469200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>331600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>329900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>285000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>297700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>254700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>266000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>204400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>231900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>177000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>195700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>158700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,43 +4227,44 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>242200</v>
+      </c>
+      <c r="E83" s="3">
         <v>222100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>205000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>232000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>172100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>169700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>155800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>123100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>118100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>110200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>102000</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>10</v>
@@ -4079,8 +4278,11 @@
       <c r="R83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E89" s="3">
         <v>220400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-321400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>945300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>213800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>796000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-71700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>602000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>191600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>493700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>104600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>458300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>125300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>275900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>59300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,43 +4619,44 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-229400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-501500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-245100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-341700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-117300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-203600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-253000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-173700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-85400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-131800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-71800</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
@@ -4449,8 +4670,11 @@
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-437500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-664900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-360000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-404300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-176000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-262800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-305700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-284100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-139600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-212500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-134100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-158800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-127600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-146000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-174900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-123100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,44 +4852,45 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-236100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-200600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-193500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-124900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-136700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-106000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-117600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-89600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-93800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-65500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-70800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4669,8 +4903,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,154 +5062,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-182900</v>
+      </c>
+      <c r="E100" s="3">
         <v>55100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1417000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-771400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>273300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-322700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>485400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-62300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-43600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-246100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>29100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-222200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-20700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-59800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>152700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-217300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>49400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-14800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-18000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-395900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>736500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-181000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>303100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>206300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>101700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>240800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>47600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>59200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>51300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>31700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>40600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
@@ -2346,7 +2346,7 @@
         <v>2250200</v>
       </c>
       <c r="E43" s="3">
-        <v>4098400</v>
+        <v>13159900</v>
       </c>
       <c r="F43" s="3">
         <v>2005200</v>
@@ -2505,7 +2505,7 @@
         <v>9321600</v>
       </c>
       <c r="E46" s="3">
-        <v>9061500</v>
+        <v>9614900</v>
       </c>
       <c r="F46" s="3">
         <v>8974600</v>
@@ -2558,7 +2558,7 @@
         <v>21000</v>
       </c>
       <c r="E47" s="3">
-        <v>15300</v>
+        <v>126000</v>
       </c>
       <c r="F47" s="3">
         <v>15800</v>
@@ -2611,7 +2611,7 @@
         <v>2511600</v>
       </c>
       <c r="E48" s="3">
-        <v>2406300</v>
+        <v>4259100</v>
       </c>
       <c r="F48" s="3">
         <v>1899100</v>
@@ -2823,7 +2823,7 @@
         <v>91600</v>
       </c>
       <c r="E52" s="3">
-        <v>97400</v>
+        <v>674700</v>
       </c>
       <c r="F52" s="3">
         <v>72900</v>
@@ -2929,7 +2929,7 @@
         <v>13518100</v>
       </c>
       <c r="E54" s="3">
-        <v>13007500</v>
+        <v>13055100</v>
       </c>
       <c r="F54" s="3">
         <v>12267100</v>
@@ -3024,7 +3024,7 @@
         <v>2387300</v>
       </c>
       <c r="E57" s="3">
-        <v>6072800</v>
+        <v>4518200</v>
       </c>
       <c r="F57" s="3">
         <v>2313700</v>
@@ -3077,7 +3077,7 @@
         <v>2199300</v>
       </c>
       <c r="E58" s="3">
-        <v>4735700</v>
+        <v>2367800</v>
       </c>
       <c r="F58" s="3">
         <v>2146000</v>
@@ -3130,7 +3130,7 @@
         <v>2021500</v>
       </c>
       <c r="E59" s="3">
-        <v>2575200</v>
+        <v>2458300</v>
       </c>
       <c r="F59" s="3">
         <v>2161300</v>
@@ -3183,7 +3183,7 @@
         <v>6608000</v>
       </c>
       <c r="E60" s="3">
-        <v>6701700</v>
+        <v>7118000</v>
       </c>
       <c r="F60" s="3">
         <v>6620900</v>
@@ -3236,7 +3236,7 @@
         <v>1758900</v>
       </c>
       <c r="E61" s="3">
-        <v>1467400</v>
+        <v>1481400</v>
       </c>
       <c r="F61" s="3">
         <v>1249200</v>
@@ -3289,7 +3289,7 @@
         <v>102100</v>
       </c>
       <c r="E62" s="3">
-        <v>214800</v>
+        <v>8423700</v>
       </c>
       <c r="F62" s="3">
         <v>131400</v>
@@ -3501,7 +3501,7 @@
         <v>8469000</v>
       </c>
       <c r="E66" s="3">
-        <v>8285000</v>
+        <v>8968400</v>
       </c>
       <c r="F66" s="3">
         <v>8001500</v>
@@ -3787,7 +3787,7 @@
         <v>4538500</v>
       </c>
       <c r="E72" s="3">
-        <v>8901000</v>
+        <v>4178500</v>
       </c>
       <c r="F72" s="3">
         <v>3797700</v>

--- a/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6220300</v>
+      </c>
+      <c r="E8" s="3">
         <v>7033600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20012600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6393700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5606200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4205700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3938500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3728200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3590400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3430800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3182000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2881600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2794800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2685700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2564000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2474000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3754500</v>
+      </c>
+      <c r="E9" s="3">
         <v>4286900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-3928700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3928700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3450200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2608600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2448600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2325500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2249400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2157200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2011600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1825800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1778300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1716900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1647700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1592600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1616800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2465800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2746700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23941300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2465000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2156000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1597100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1489900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1402700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1341000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1273600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1170400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1055800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1016500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>968800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>916300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>881400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,61 +939,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>252600</v>
+      </c>
+      <c r="E12" s="3">
         <v>231800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>-196100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>196100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>195700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>120900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>121200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>108600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>103500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>99100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>86400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>77200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>76200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>71000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>62300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>65500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>61300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1032,8 +1049,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1070,8 +1090,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1085,8 +1105,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5638200</v>
+      </c>
+      <c r="E17" s="3">
         <v>6388900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6173400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5806000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5083600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3823300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3556900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3396400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3251600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3136900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2888100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2645600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2538400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2480200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2340100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2287500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2307000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>582100</v>
+      </c>
+      <c r="E18" s="3">
         <v>644700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13839200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>587700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>522600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>382400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>381600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>331800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>338800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>293900</v>
       </c>
       <c r="M18" s="3">
         <v>293900</v>
       </c>
       <c r="N18" s="3">
+        <v>293900</v>
+      </c>
+      <c r="O18" s="3">
         <v>236000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>256400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>205500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>223900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>186500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,114 +1316,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-23200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13220500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-17600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-26200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-25100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>806100</v>
+      </c>
+      <c r="E21" s="3">
         <v>863700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>840800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>768100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>737100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>528300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>524200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>462600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>442300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>393500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>392300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>325400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>254500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>284400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>232500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>266800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1415,8 +1455,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
@@ -1433,123 +1473,132 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="3">
         <v>10300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>535400</v>
+      </c>
+      <c r="E23" s="3">
         <v>621500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>618700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>563100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>505000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>356200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>354500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>306800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>319200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>275400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>282100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>223400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>246700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>193400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>213600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>173400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>176900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E24" s="3">
         <v>43500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1225100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>39400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>24600</v>
       </c>
       <c r="I24" s="3">
         <v>24600</v>
       </c>
       <c r="J24" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K24" s="3">
         <v>21700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>499200</v>
+      </c>
+      <c r="E26" s="3">
         <v>578000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>575400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>523700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>469400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>331600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>329900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>285100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>297800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>254800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>266100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>204400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>231900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>176900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>195500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>158600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>499200</v>
+      </c>
+      <c r="E27" s="3">
         <v>578000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>575400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>523600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>469200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>331600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>329900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>285000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>297700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>254700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>266000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>204400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>231900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>177000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>195700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>158700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1813,8 +1874,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E32" s="3">
         <v>23200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13220500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>17600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>26200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>25100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>499200</v>
+      </c>
+      <c r="E33" s="3">
         <v>578000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>575400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>523600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>469200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>331600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>329900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>285000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>297700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>254700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>266000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>204400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>231900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>177000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>195700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>158700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>499200</v>
+      </c>
+      <c r="E35" s="3">
         <v>578000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>575400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>523600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>469200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>331600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>329900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>285000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>297700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>254700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>266000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>204400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>231900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>177000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>195700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>158700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,485 +2317,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1428900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1274200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1874400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2270300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1533900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1714900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1411800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1205600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1103900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>863100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>863500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>818100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>804700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>743800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>774600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>725200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>690400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E42" s="3">
         <v>12200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>25800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>17800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>24600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>45500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>32300</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1100</v>
-      </c>
-      <c r="R42" s="3">
-        <v>1200</v>
       </c>
       <c r="S42" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2250200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13159900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2005200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1415600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1656400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1280400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1414000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1161000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1267000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1154400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1145100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>977300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1011300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>887500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>938300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5085000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5231700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4849800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4471300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3223700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2326800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2112900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1961100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1766700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1577700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1467400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1414700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1296400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1341400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1190300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1130900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1056300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>308900</v>
+      </c>
+      <c r="E45" s="3">
         <v>553400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>245000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>202000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>149000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>212500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>194100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>160900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>160600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>145000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>116400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>103400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>118800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>116900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>139800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>146300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8537100</v>
+      </c>
+      <c r="E46" s="3">
         <v>9321600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9614900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8974600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6340000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5926900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5023900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4767400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4225000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3898300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3634000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3481300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3197300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3214400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2993400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2941800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2735500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E47" s="3">
         <v>21000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>126000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>15800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>14300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>15700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>17600</v>
-      </c>
-      <c r="R47" s="3">
-        <v>18700</v>
       </c>
       <c r="S47" s="3">
         <v>18700</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2769200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2511600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4259100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1899100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1716700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1404900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1333700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1201800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>790900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>699300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>688900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>624700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>601200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>566600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>538500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>507100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>425400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1722700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1572300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1427000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1304600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1242100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1268500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1247600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1222200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1202000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1142700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1135800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1120000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1099800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1117900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1074700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1060600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1050200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>258400</v>
+      </c>
+      <c r="E52" s="3">
         <v>91600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>674700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>72900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>74500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>76800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>74900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>86200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>112400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>115600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>123800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>184400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>207800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>163800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>178500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>124500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13315600</v>
+      </c>
+      <c r="E54" s="3">
         <v>13518100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13055100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12267100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9390400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8695500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7698100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7296000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6348900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5873600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5598500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5424400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5120400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5078500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4802700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4652700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4351400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2073300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2387300</v>
       </c>
-      <c r="E57" s="3">
-        <v>4518200</v>
-      </c>
       <c r="F57" s="3">
+        <v>2034300</v>
+      </c>
+      <c r="G57" s="3">
         <v>2313700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1723100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1441700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1131300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1009700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1085800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>946600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>863600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>829400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>765600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>797600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>673200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>706300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>696500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2199300</v>
+        <v>2094500</v>
       </c>
       <c r="E58" s="3">
-        <v>2367800</v>
+        <v>2201200</v>
       </c>
       <c r="F58" s="3">
-        <v>2146000</v>
+        <v>4794300</v>
       </c>
       <c r="G58" s="3">
-        <v>458500</v>
+        <v>2147700</v>
       </c>
       <c r="H58" s="3">
-        <v>1067800</v>
+        <v>460000</v>
       </c>
       <c r="I58" s="3">
-        <v>796300</v>
+        <v>1069000</v>
       </c>
       <c r="J58" s="3">
+        <v>805300</v>
+      </c>
+      <c r="K58" s="3">
         <v>818400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>255500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>204100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>263200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>452300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>408500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>569500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>594300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>660800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>556900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2021500</v>
+        <v>2054600</v>
       </c>
       <c r="E59" s="3">
-        <v>2458300</v>
+        <v>2019500</v>
       </c>
       <c r="F59" s="3">
-        <v>2161300</v>
+        <v>2515700</v>
       </c>
       <c r="G59" s="3">
-        <v>1899700</v>
+        <v>2159600</v>
       </c>
       <c r="H59" s="3">
-        <v>1297400</v>
+        <v>1898300</v>
       </c>
       <c r="I59" s="3">
-        <v>1290200</v>
+        <v>1296200</v>
       </c>
       <c r="J59" s="3">
+        <v>1281100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1316900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1274600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1115500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1018600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>905400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>895700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>868900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>801900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>725100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>693800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6222300</v>
+      </c>
+      <c r="E60" s="3">
         <v>6608000</v>
       </c>
-      <c r="E60" s="3">
-        <v>7118000</v>
-      </c>
       <c r="F60" s="3">
+        <v>6679000</v>
+      </c>
+      <c r="G60" s="3">
         <v>6620900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4081400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3806900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3217700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3145000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2616000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2266200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2145400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2187200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2069700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2236000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2069500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2092200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1947200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1763600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1758900</v>
       </c>
-      <c r="E61" s="3">
-        <v>1481400</v>
-      </c>
       <c r="F61" s="3">
+        <v>1543500</v>
+      </c>
+      <c r="G61" s="3">
         <v>1249200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1241300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1141000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>929100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>830000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>540900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>560600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>573400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>551900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>501200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>495800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>467100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>407600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>333400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E62" s="3">
         <v>102100</v>
       </c>
-      <c r="E62" s="3">
-        <v>8423700</v>
-      </c>
       <c r="F62" s="3">
+        <v>138700</v>
+      </c>
+      <c r="G62" s="3">
         <v>131400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>164800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>160600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>156900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>140500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>134600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>140000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>138900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>153500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>150500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>114100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>110600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>103600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8110100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8469000</v>
       </c>
-      <c r="E66" s="3">
-        <v>8968400</v>
-      </c>
       <c r="F66" s="3">
+        <v>8285000</v>
+      </c>
+      <c r="G66" s="3">
         <v>8001500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5487400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5108100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4303400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4115100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3291100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2966400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2857300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2891900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2720900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2845400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2646700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2603300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2384200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4820600</v>
+      </c>
+      <c r="E72" s="3">
         <v>4538500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4178500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3797700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3459600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3128700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2933700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2702600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2570200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2392400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2241100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2042300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1912500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1735600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1610100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1451100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1336100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5205500</v>
+      </c>
+      <c r="E76" s="3">
         <v>5049100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4722500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4265600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3903000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3587400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3394600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3180900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3057800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2907200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2741200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2532600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2399500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2233100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2156000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2049400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1967200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>499200</v>
+      </c>
+      <c r="E81" s="3">
         <v>578000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>575400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>523600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>469200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>331600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>329900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>285000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>297700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>254700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>266000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>204400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>231900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>177000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>195700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>158700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,46 +4426,47 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>270700</v>
+      </c>
+      <c r="E83" s="3">
         <v>242200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>222100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>205000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>232000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>172100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>169700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>155800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>123100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>118100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>110200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>102000</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>10</v>
@@ -4281,8 +4480,11 @@
       <c r="S83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1172700</v>
+      </c>
+      <c r="E89" s="3">
         <v>60400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>220400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-321400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>945300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>213800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>796000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-71700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>602000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>191600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>493700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>104600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>458300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>125300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>275900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>59300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,46 +4840,47 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-229400</v>
+        <v>-576600</v>
       </c>
       <c r="E91" s="3">
-        <v>-501500</v>
+        <v>-409300</v>
       </c>
       <c r="F91" s="3">
-        <v>-245100</v>
+        <v>-682100</v>
       </c>
       <c r="G91" s="3">
-        <v>-341700</v>
+        <v>-374700</v>
       </c>
       <c r="H91" s="3">
-        <v>-117300</v>
+        <v>-421400</v>
       </c>
       <c r="I91" s="3">
-        <v>-203600</v>
+        <v>-195700</v>
       </c>
       <c r="J91" s="3">
+        <v>-286900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-253000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-173700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-85400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-131800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-71800</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
@@ -4673,8 +4894,11 @@
       <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-481700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-437500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-664900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-360000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-404300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-176000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-262800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-305700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-284100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-139600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-212500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-134100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-158800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-127600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-146000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-174900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-123100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,47 +5086,48 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-224300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-236100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-200600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-193500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-124900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-136700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-106000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-117600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-89600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-93800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-65500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-70800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4906,8 +5140,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,163 +5308,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-529800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-182900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>55100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1417000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-771400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>273300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-322700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>485400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-43600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-246100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>29100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-222200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-59800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>152700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-217300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-40200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>49400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-18000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-18800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>154800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-395900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>736500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-181000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>303100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>206300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>101700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>240800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>47600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>59200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>51300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>31700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>40600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTNDY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6879500</v>
+      </c>
+      <c r="E8" s="3">
         <v>6220300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7033600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20012600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6393700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5606200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4205700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3938500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3728200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3590400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3430800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3182000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2881600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2794800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2685700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2564000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2474000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4177800</v>
+      </c>
+      <c r="E9" s="3">
         <v>3754500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4286900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-3928700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3928700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3450200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2608600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2448600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2325500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2249400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2157200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2011600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1825800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1778300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1716900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1647700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1592600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1616800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2701700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2465800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2746700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23941300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2465000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2156000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1597100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1489900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1402700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1341000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1273600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1170400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1055800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1016500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>968800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>916300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>881400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,64 +953,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>243500</v>
+      </c>
+      <c r="E12" s="3">
         <v>252600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>231800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>-196100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>196100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>195700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>120900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>121200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>108600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>103500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>99100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>86400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>77200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>76200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>71000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>62300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>65500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>61300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1052,8 +1069,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1113,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1108,8 +1128,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1187,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6290200</v>
+      </c>
+      <c r="E17" s="3">
         <v>5638200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6388900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6173400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5806000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5083600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3823300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3556900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3396400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3251600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3136900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2888100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2645600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2538400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2480200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2340100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2287500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2307000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>589300</v>
+      </c>
+      <c r="E18" s="3">
         <v>582100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>644700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13839200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>587700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>522600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>382400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>381600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>331800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>338800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>293900</v>
       </c>
       <c r="N18" s="3">
         <v>293900</v>
       </c>
       <c r="O18" s="3">
+        <v>293900</v>
+      </c>
+      <c r="P18" s="3">
         <v>236000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>256400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>205500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>223900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>186500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,120 +1350,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-78300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-46600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-23200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13220500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-24600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-27100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>798400</v>
+      </c>
+      <c r="E21" s="3">
         <v>806100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>863700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>840800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>768100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>737100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>528300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>524200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>462600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>442300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>393500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>392300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>325400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>254500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>284400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>232500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>266800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1458,8 +1498,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
@@ -1476,129 +1516,138 @@
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="3">
         <v>10300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E23" s="3">
         <v>535400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>621500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>618700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>563100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>505000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>356200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>354500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>306800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>319200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>275400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>282100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>223400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>246700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>193400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>213600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>173400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>176900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E24" s="3">
         <v>36300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>43500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1225100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>39400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>24600</v>
       </c>
       <c r="J24" s="3">
         <v>24600</v>
       </c>
       <c r="K24" s="3">
+        <v>24600</v>
+      </c>
+      <c r="L24" s="3">
         <v>21700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>475800</v>
+      </c>
+      <c r="E26" s="3">
         <v>499200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>578000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>575400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>523700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>469400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>331600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>329900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>285100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>297800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>254800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>266100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>204400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>231900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>176900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>195500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>158600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>475800</v>
+      </c>
+      <c r="E27" s="3">
         <v>499200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>578000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>575400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>523600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>469200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>331600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>329900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>285000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>297700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>254700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>266000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>204400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>231900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>177000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>195700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>158700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1877,8 +1938,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E32" s="3">
         <v>46600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>23200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13220500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>24600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>27100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>475800</v>
+      </c>
+      <c r="E33" s="3">
         <v>499200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>578000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>575400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>523600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>469200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>331600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>329900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>285000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>297700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>254700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>266000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>204400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>231900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>177000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>195700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>158700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>475800</v>
+      </c>
+      <c r="E35" s="3">
         <v>499200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>578000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>575400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>523600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>469200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>331600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>329900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>285000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>297700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>254700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>266000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>204400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>231900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>177000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>195700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>158700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,512 +2404,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1485100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1428900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1274200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1874400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2270300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1533900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1714900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1411800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1205600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1103900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>863100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>863500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>818100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>804700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>743800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>774600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>725200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>690400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E42" s="3">
         <v>13500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>12200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>24600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>32800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>45500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>32300</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>1000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1100</v>
-      </c>
-      <c r="S42" s="3">
-        <v>1200</v>
       </c>
       <c r="T42" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2074900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2250200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13159900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2005200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1415600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1656400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1280400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1414000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1161000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1267000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1154400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1145100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>977300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1011300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>887500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>938300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4580800</v>
+      </c>
+      <c r="E44" s="3">
         <v>5085000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5231700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4849800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4471300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3223700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2326800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2112900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1961100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1766700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1577700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1467400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1414700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1296400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1341400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1190300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1130900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1056300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>271900</v>
+      </c>
+      <c r="E45" s="3">
         <v>308900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>553400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>245000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>202000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>149000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>212500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>194100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>160900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>160600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>145000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>116400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>103400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>118800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>116900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>139800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>146300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8432800</v>
+      </c>
+      <c r="E46" s="3">
         <v>8537100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9321600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9614900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8974600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6340000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5926900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5023900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4767400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4225000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3898300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3634000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3481300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3197300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3214400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2993400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2941800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2735500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E47" s="3">
         <v>28300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>126000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>15800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>14000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>14300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>15700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>17600</v>
-      </c>
-      <c r="S47" s="3">
-        <v>18700</v>
       </c>
       <c r="T47" s="3">
         <v>18700</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2950000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2769200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2511600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4259100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1899100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1716700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1404900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1333700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1201800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>790900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>699300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>688900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>624700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>601200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>566600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>538500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>507100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>425400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1838100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1722700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1572300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1427000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1304600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1242100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1268500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1247600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1222200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1202000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1142700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1135800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1120000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1099800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1117900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1074700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1060600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1050200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E52" s="3">
         <v>258400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>91600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>674700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>72900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>74500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>76800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>74900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>86200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>112400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>115600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>123800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>184400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>207800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>163800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>178500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>124500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13430200</v>
+      </c>
+      <c r="E54" s="3">
         <v>13315600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13518100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13055100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12267100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9390400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8695500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7698100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7296000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6348900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5873600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5598500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5424400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5120400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5078500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4802700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4652700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4351400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3276,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2021800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2073300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2387300</v>
       </c>
-      <c r="F57" s="3">
-        <v>2034300</v>
-      </c>
       <c r="G57" s="3">
+        <v>4518200</v>
+      </c>
+      <c r="H57" s="3">
         <v>2313700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1723100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1441700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1131300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1009700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1085800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>946600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>863600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>829400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>765600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>797600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>673200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>706300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>696500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2001900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2094500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2201200</v>
       </c>
-      <c r="F58" s="3">
-        <v>4794300</v>
-      </c>
       <c r="G58" s="3">
+        <v>2369700</v>
+      </c>
+      <c r="H58" s="3">
         <v>2147700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>460000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1069000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>805300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>818400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>255500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>204100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>263200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>452300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>408500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>569500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>594300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>660800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>556900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1875200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2054600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2019500</v>
       </c>
-      <c r="F59" s="3">
-        <v>2515700</v>
-      </c>
       <c r="G59" s="3">
+        <v>2456400</v>
+      </c>
+      <c r="H59" s="3">
         <v>2159600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1898300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1296200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1281100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1316900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1274600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1115500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1018600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>905400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>895700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>868900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>801900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>725100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>693800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5899000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6222300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6608000</v>
       </c>
-      <c r="F60" s="3">
-        <v>6679000</v>
-      </c>
       <c r="G60" s="3">
+        <v>7118000</v>
+      </c>
+      <c r="H60" s="3">
         <v>6620900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4081400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3806900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3217700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3145000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2616000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2266200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2145400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2187200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2069700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2236000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2069500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2092200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1947200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1726600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1763600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1758900</v>
       </c>
-      <c r="F61" s="3">
-        <v>1543500</v>
-      </c>
       <c r="G61" s="3">
+        <v>1481400</v>
+      </c>
+      <c r="H61" s="3">
         <v>1249200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1241300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1141000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>929100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>830000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>540900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>560600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>573400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>551900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>501200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>495800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>467100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>407600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>333400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E62" s="3">
         <v>124200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>102100</v>
       </c>
-      <c r="F62" s="3">
-        <v>138700</v>
-      </c>
       <c r="G62" s="3">
+        <v>8423700</v>
+      </c>
+      <c r="H62" s="3">
         <v>131400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>164800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>160600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>156900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>140500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>134600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>140000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>138900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>153500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>150500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>114100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>110600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>103600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7736500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8110100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8469000</v>
       </c>
-      <c r="F66" s="3">
-        <v>8285000</v>
-      </c>
       <c r="G66" s="3">
+        <v>8968400</v>
+      </c>
+      <c r="H66" s="3">
         <v>8001500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5487400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5108100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4303400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4115100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3291100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2966400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2857300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2891900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2720900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2845400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2646700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2603300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2384200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5306700</v>
+      </c>
+      <c r="E72" s="3">
         <v>4820600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4538500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4178500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3797700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3459600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3128700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2933700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2702600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2570200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2392400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2241100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2042300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1912500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1735600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1610100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1451100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1336100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5693700</v>
+      </c>
+      <c r="E76" s="3">
         <v>5205500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5049100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4722500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4265600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3903000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3587400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3394600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3180900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3057800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2907200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2741200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2532600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2399500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2233100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2156000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2049400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1967200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>475800</v>
+      </c>
+      <c r="E81" s="3">
         <v>499200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>578000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>575400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>523600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>469200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>331600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>329900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>285000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>297700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>254700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>266000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>204400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>231900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>177000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>195700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>158700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,49 +4625,50 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>287400</v>
+      </c>
+      <c r="E83" s="3">
         <v>270700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>242200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>222100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>205000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>232000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>172100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>169700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>155800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>123100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>118100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>110200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>102000</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>10</v>
@@ -4483,8 +4682,11 @@
       <c r="T83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>693800</v>
+      </c>
+      <c r="E89" s="3">
         <v>1172700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>60400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>220400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-321400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>945300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>213800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>796000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-71700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>602000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>191600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>493700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>104600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>458300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>125300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>275900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>59300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,49 +5061,50 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-396300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-576600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-409300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-682100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-374700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-421400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-195700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-286900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-253000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-173700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-85400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-131800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-71800</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
@@ -4897,8 +5118,11 @@
       <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-365700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-481700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-437500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-664900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-360000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-404300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-176000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-262800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-305700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-284100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-139600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-212500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-134100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-158800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-127600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-146000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-174900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-123100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,50 +5320,51 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-224300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-236100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-200600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-193500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-124900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-136700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-106000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-117600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-89600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-93800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-65500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-70800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5143,8 +5377,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,172 +5554,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-245100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-529800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-182900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>55100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1417000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-771400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>273300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-322700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>485400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-43600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-246100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>29100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-222200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-59800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>152700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-217300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-40200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>49400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-18800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E102" s="3">
         <v>154800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-395900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>736500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-181000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>303100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>206300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>101700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>240800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>47600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>59200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-26900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>51300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>31700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>40600</v>
       </c>
     </row>
